--- a/biology/Biologie cellulaire et moléculaire/Dépistage_génétique/Dépistage_génétique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Dépistage_génétique/Dépistage_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+          <t>Dépistage_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un dépistage génétique ou dépistage de mutagénèse est une technique expérimentale utilisée pour identifier et sélectionner des individus possédant un phénotype d'intérêt au sein d'une population à laquelle on a appliqué une mutagénèse[1]. Un dépistage génétique est donc un type de dépistage phénotypique. Les dépistages génétiques peuvent fournir d'importantes informations sur la fonction d'un gène ainsi que sur les événements moléculaires à la base d'un processus biologique ou d'une voie métabolique. Alors que les projets de séquençage de génomes ont permis d'identifier un vaste inventaire de gènes dans beaucoup d'organismes différents, les dépistages génétiques peuvent fournir des informations précieuses sur la façon dont ces gènes fonctionnent[2],[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dépistage génétique ou dépistage de mutagénèse est une technique expérimentale utilisée pour identifier et sélectionner des individus possédant un phénotype d'intérêt au sein d'une population à laquelle on a appliqué une mutagénèse. Un dépistage génétique est donc un type de dépistage phénotypique. Les dépistages génétiques peuvent fournir d'importantes informations sur la fonction d'un gène ainsi que sur les événements moléculaires à la base d'un processus biologique ou d'une voie métabolique. Alors que les projets de séquençage de génomes ont permis d'identifier un vaste inventaire de gènes dans beaucoup d'organismes différents, les dépistages génétiques peuvent fournir des informations précieuses sur la façon dont ces gènes fonctionnent.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+          <t>Dépistage_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Dépistage basique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La génétique classique (ou un dépistage génétique classique) est une approche utilisée pour identifier des gènes (ou un groupe de gènes) conférant un phénotype particulier à un organisme. La génétique inverse (ou un dépistage génétique inverse), d'un autre côté, analyse le phénotype d'un organisme à la suite de la perturbation d'un gène connu. En bref, la génétique classique part d'un phénotype pour identifier le ou les gène(s) qui y sont liés, alors que la génétique inverse part d'un gène connu et teste l'effet de sa perturbation en analysant les phénotypes résultants. Les dépistages génétiques classiques comme inverses ont pour but de déterminer la fonction d'un ou plusieurs gènes[1].
-Les dépistages génétiques classiques ont souvent deux éléments-clés. Le premier est un contexte génétique défini chez l'organisme utilisé et le second est une procédure expérimentale simple mais constante pour identifier des mutants d'intérêt. Les contextes génétiques définis permettent aux chercheurs d'identifier et de localiser de manière plus efficace les gènes affectés chez les mutants individuels. Une méthode de dépistage simplifiée est bénéfique parce qu'elle permet de dépister un plus grand nombre d'individus, augmentant ainsi la probabilité de générer et d'identifier des mutants d'intérêt[3].
-Comme les mutations alléliques naturelles sont rares, avant le dépistage, les généticiens génèrent souvent une mutagénèse sur une population d'individus en les exposant à un agent mutagène connu tel qu'un composé chimique ou des radiations, ce qui génère ainsi une fréquence beaucoup plus grande de mutations chromosomiques[1]. Chez certains organismes, les agents mutagènes peuvent être utiles pour réaliser des dépistages de saturation. Ces derniers sont utilisés pour découvrir tous les gènes impliqués dans un phénotype particulier d'un organisme ou d'une espèce. Ce dépistage est réalisé en cartographiant des mutants d'un processus biologique jusqu'à ce qu'aucun nouveau gène ou nouvelle mutation ne soit trouvé(e). Christiane Nüsslein-Volhard et Eric Wieschaus ont été les premiers individus à accomplir ce type de procédure de dépistage.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La génétique classique (ou un dépistage génétique classique) est une approche utilisée pour identifier des gènes (ou un groupe de gènes) conférant un phénotype particulier à un organisme. La génétique inverse (ou un dépistage génétique inverse), d'un autre côté, analyse le phénotype d'un organisme à la suite de la perturbation d'un gène connu. En bref, la génétique classique part d'un phénotype pour identifier le ou les gène(s) qui y sont liés, alors que la génétique inverse part d'un gène connu et teste l'effet de sa perturbation en analysant les phénotypes résultants. Les dépistages génétiques classiques comme inverses ont pour but de déterminer la fonction d'un ou plusieurs gènes.
+Les dépistages génétiques classiques ont souvent deux éléments-clés. Le premier est un contexte génétique défini chez l'organisme utilisé et le second est une procédure expérimentale simple mais constante pour identifier des mutants d'intérêt. Les contextes génétiques définis permettent aux chercheurs d'identifier et de localiser de manière plus efficace les gènes affectés chez les mutants individuels. Une méthode de dépistage simplifiée est bénéfique parce qu'elle permet de dépister un plus grand nombre d'individus, augmentant ainsi la probabilité de générer et d'identifier des mutants d'intérêt.
+Comme les mutations alléliques naturelles sont rares, avant le dépistage, les généticiens génèrent souvent une mutagénèse sur une population d'individus en les exposant à un agent mutagène connu tel qu'un composé chimique ou des radiations, ce qui génère ainsi une fréquence beaucoup plus grande de mutations chromosomiques. Chez certains organismes, les agents mutagènes peuvent être utiles pour réaliser des dépistages de saturation. Ces derniers sont utilisés pour découvrir tous les gènes impliqués dans un phénotype particulier d'un organisme ou d'une espèce. Ce dépistage est réalisé en cartographiant des mutants d'un processus biologique jusqu'à ce qu'aucun nouveau gène ou nouvelle mutation ne soit trouvé(e). Christiane Nüsslein-Volhard et Eric Wieschaus ont été les premiers individus à accomplir ce type de procédure de dépistage.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+          <t>Dépistage_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,11 @@
           <t>Variantes de dépistage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs variantes de dépistage ont été imaginées pour identifier un gène conduisant à un phénotype mutant d'intérêt.
-Amplificateur
-Un dépistage-amplificateur (enhancer screen en anglais) part d'un individu mutant qui possède un processus d'intérêt affecté au sein duquel il y a une mutation génique connue. Le dépistage peut ensuite être utilisé pour identifier des gènes ou des mutations complémentaires qui jouent un rôle dans le processus biologique ou physiologique concerné. Un dépistage-amplificateur génétique identifie des mutations qui amplifient un phénotype d'intérêt chez un individu déjà mutant. Le phénotype du double mutant (individu avec à la fois l'amplificateur et la mutation contextuelle originelle) est plus remarquable que n'importe quel autre phénotype mutant simple. L'amplificateur doit surpasser les phénotypes attendus des deux mutations en elles-mêmes, et ainsi chaque mutation peut être considérée comme amplificatrice de l'autre. Isoler des mutants amplificateurs peut permettre l'identification de gènes qui interagissent ou qui agissent de façon redondante l'un par rapport à l'autre[7].
-Suppresseur
-Un dépistage-suppresseur (suppression screen) est utilisé pour identifier des « mutations suppressives » (suppressor mutations) qui réduisent ou inversent le phénotype de la mutation originelle, dans un processus défini comme la « viabilité synthétique » (synthetic viability)[8]. Les mutations suppressives peuvent être décrites comme mutations secondaires au niveau d'un site particulier du chromosome distinct de la mutation étudiée, ce qui supprime le phénotype de la mutation originelle[9]. Si la mutation est située sur le même gène que la mutation originelle, elle est définie comme suppression intragénique, alors qu'une mutation située sur un gène différent est définie comme suppression extragénique ou intergénique[1]. Les mutations suppressives sont extrêmement utiles pour définir les fonctions de voies biochimiques dans une cellule et les liens entre les différentes voies biochimiques.
-Thermosensible
-Un dépistage thermosensible (temperature sensitive screen) implique de mettre en place des changements de température afin d'amplifier un phénotype mutant. Une population qui s'est développée à basse température aura un phénotype normal ; cependant, une mutation dans un gène particulier le rendra instable à une température plus forte. Un dépistage de thermosensibilité chez la drosophile, par exemple, pourrait impliquer l'élévation de la température dans le milieu jusqu'à ce que certains individus s'évanouissent, ce qui ouvre les portes aux autres pour s'échapper. Les individus sélectionnés lors d'un dépistage sont susceptibles de porter une version inhabituelle d'un gène impliqué dans le phénotype d'intérêt. L'avantage des allèles trouvés dans ce type de dépistage est que le phénotype mutant est conditionnel et peut être activé simplement en augmentant la température. Une mutation nulle dans un tel gène pourrait être létale à l'embryon et de tels mutants passeraient inaperçus dans un dépistage classique. Un dépistage thermosensible réputé a été réalisé de façon indépendante par Lee Hartwell et Paul Nurse pour identifier des mutants défectueux dans le cycle cellulaire des levures S. cerevisiae et S. pombe, respectivement.
 </t>
         </is>
       </c>
@@ -563,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+          <t>Dépistage_génétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +588,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cartographie des mutants</t>
+          <t>Variantes de dépistage</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avec l'approche génétique classique, un chercheur localiserait (cartographierait) un gène sur son chromosome en croisant des individus qui portent d'autres caractères inhabituels et en collectant des statistiques montrant à quelle fréquence ces deux caractères sont hérités ensemble. Les généticiens classiques auraient utilisé des caractères phénotypiques pour cartographier les nouveaux allèles mutants. Avec l'avènement des séquences génomiques pour les systèmes d'organismes modèles comme Drosophila melanogaster, Arabidopsis thaliana et Caenorhabditis elegans, plusieurs polymorphismes nucléotidiques ont depuis été identifiés comme pouvant être utilisés comme caractères à cartographier. Ces polymorphismes constituent les caractères privilégiés pour la cartographie car ils sont très fréquents (de l'ordre d'une différence par mille paires de bases) sur différentes variétés d'organismes. Les mutagènes comme des insertions d'ADN aléatoires par transformation ou des transposons actifs peuvent aussi être utilisés pour générer des nouveaux mutants. Ces techniques ont l'avantage de marquer les nouveaux allèles avec un marqueur moléculaire d'ADN connu qui peut faciliter l'identification rapide du gène.
+          <t>Amplificateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dépistage-amplificateur (enhancer screen en anglais) part d'un individu mutant qui possède un processus d'intérêt affecté au sein duquel il y a une mutation génique connue. Le dépistage peut ensuite être utilisé pour identifier des gènes ou des mutations complémentaires qui jouent un rôle dans le processus biologique ou physiologique concerné. Un dépistage-amplificateur génétique identifie des mutations qui amplifient un phénotype d'intérêt chez un individu déjà mutant. Le phénotype du double mutant (individu avec à la fois l'amplificateur et la mutation contextuelle originelle) est plus remarquable que n'importe quel autre phénotype mutant simple. L'amplificateur doit surpasser les phénotypes attendus des deux mutations en elles-mêmes, et ainsi chaque mutation peut être considérée comme amplificatrice de l'autre. Isoler des mutants amplificateurs peut permettre l'identification de gènes qui interagissent ou qui agissent de façon redondante l'un par rapport à l'autre.
 </t>
         </is>
       </c>
@@ -594,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+          <t>Dépistage_génétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +625,119 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Variantes de dépistage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suppresseur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dépistage-suppresseur (suppression screen) est utilisé pour identifier des « mutations suppressives » (suppressor mutations) qui réduisent ou inversent le phénotype de la mutation originelle, dans un processus défini comme la « viabilité synthétique » (synthetic viability). Les mutations suppressives peuvent être décrites comme mutations secondaires au niveau d'un site particulier du chromosome distinct de la mutation étudiée, ce qui supprime le phénotype de la mutation originelle. Si la mutation est située sur le même gène que la mutation originelle, elle est définie comme suppression intragénique, alors qu'une mutation située sur un gène différent est définie comme suppression extragénique ou intergénique. Les mutations suppressives sont extrêmement utiles pour définir les fonctions de voies biochimiques dans une cellule et les liens entre les différentes voies biochimiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dépistage_génétique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Variantes de dépistage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Thermosensible</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dépistage thermosensible (temperature sensitive screen) implique de mettre en place des changements de température afin d'amplifier un phénotype mutant. Une population qui s'est développée à basse température aura un phénotype normal ; cependant, une mutation dans un gène particulier le rendra instable à une température plus forte. Un dépistage de thermosensibilité chez la drosophile, par exemple, pourrait impliquer l'élévation de la température dans le milieu jusqu'à ce que certains individus s'évanouissent, ce qui ouvre les portes aux autres pour s'échapper. Les individus sélectionnés lors d'un dépistage sont susceptibles de porter une version inhabituelle d'un gène impliqué dans le phénotype d'intérêt. L'avantage des allèles trouvés dans ce type de dépistage est que le phénotype mutant est conditionnel et peut être activé simplement en augmentant la température. Une mutation nulle dans un tel gène pourrait être létale à l'embryon et de tels mutants passeraient inaperçus dans un dépistage classique. Un dépistage thermosensible réputé a été réalisé de façon indépendante par Lee Hartwell et Paul Nurse pour identifier des mutants défectueux dans le cycle cellulaire des levures S. cerevisiae et S. pombe, respectivement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dépistage_génétique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cartographie des mutants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec l'approche génétique classique, un chercheur localiserait (cartographierait) un gène sur son chromosome en croisant des individus qui portent d'autres caractères inhabituels et en collectant des statistiques montrant à quelle fréquence ces deux caractères sont hérités ensemble. Les généticiens classiques auraient utilisé des caractères phénotypiques pour cartographier les nouveaux allèles mutants. Avec l'avènement des séquences génomiques pour les systèmes d'organismes modèles comme Drosophila melanogaster, Arabidopsis thaliana et Caenorhabditis elegans, plusieurs polymorphismes nucléotidiques ont depuis été identifiés comme pouvant être utilisés comme caractères à cartographier. Ces polymorphismes constituent les caractères privilégiés pour la cartographie car ils sont très fréquents (de l'ordre d'une différence par mille paires de bases) sur différentes variétés d'organismes. Les mutagènes comme des insertions d'ADN aléatoires par transformation ou des transposons actifs peuvent aussi être utilisés pour générer des nouveaux mutants. Ces techniques ont l'avantage de marquer les nouveaux allèles avec un marqueur moléculaire d'ADN connu qui peut faciliter l'identification rapide du gène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dépistage_génétique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9pistage_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Clonage positionnel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clonage positionnel est une méthode d'identification génique dans laquelle un gène conférant un phénotype spécifique est identifié seulement par sa localisation approximative sur son chromosome, mais pas par sa fonction ; celle-ci est connue comme la région candidate. Initialement, la région candidate peut être définie en utilisant des techniques comme la liaison génétique, et le clonage positionnel est ensuite utilisé pour restreindre la région candidate jusqu'à ce que le gène et ses mutations soient trouvés. Ce clonage implique typiquement l'isolation de segments d'ADN partiellement chevauchants issus de banques génomiques pour progresser le long du chromosome jusqu'à un gène spécifique. Pendant l'évolution du clonage positionnel, il est nécessaire de déterminer si le segment d'ADN auquel on s'intéresse fait partie du gène ou non.
 Les tests utilisés à cette fin incluent l'hybridation inter-espèces, l'identification de dinucléotides CpG non méthylés, le piégeage d'exons, la sélection directe d'ADNc, l'analyse informatique de séquence d'ADN, le dépistage de mutations chez les individus affectés, et les tests d'expression génique. Pour les génomes au sein desquels les régions de polymorphismes génétiques sont connues, le clonage positionnel implique d'identifier des polymorphismes qui encadrent la mutation. Ce processus requiert que les fragments d'ADN issus du marqueur génétique connu le plus proche soient progressivement clonés et séquencés, ce qui permet d'approcher de l'allèle mutant avec chaque nouveau clone. Ce processus produit une carte contig du locus et est connu sous le nom d'arpentage chromosomique. Avec l'achèvement des projets de séquençage de génomes tels que le Projet génome humain, le clonage positionnel moderne peut utiliser des contigs préparés issus directement des bases de données de séquences génomiques. 
